--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.36661271669369</v>
+        <v>4.477828666666666</v>
       </c>
       <c r="H2">
-        <v>2.36661271669369</v>
+        <v>13.433486</v>
       </c>
       <c r="I2">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="J2">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="N2">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="O2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="P2">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="Q2">
-        <v>0.3532044896441185</v>
+        <v>0.6768208177475555</v>
       </c>
       <c r="R2">
-        <v>0.3532044896441185</v>
+        <v>6.091387359727999</v>
       </c>
       <c r="S2">
-        <v>0.5406656983888706</v>
+        <v>0.3487361749583653</v>
       </c>
       <c r="T2">
-        <v>0.5406656983888706</v>
+        <v>0.3487361749583652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.36661271669369</v>
+        <v>4.477828666666666</v>
       </c>
       <c r="H3">
-        <v>2.36661271669369</v>
+        <v>13.433486</v>
       </c>
       <c r="I3">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="J3">
-        <v>0.6635878035078902</v>
+        <v>0.4652827882180238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0339312761233947</v>
+        <v>0.05051366666666667</v>
       </c>
       <c r="N3">
-        <v>0.0339312761233947</v>
+        <v>0.151541</v>
       </c>
       <c r="O3">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="P3">
-        <v>0.1852386443349663</v>
+        <v>0.2504855460181921</v>
       </c>
       <c r="Q3">
-        <v>0.08030218956727088</v>
+        <v>0.2261915446584445</v>
       </c>
       <c r="R3">
-        <v>0.08030218956727088</v>
+        <v>2.035723901926</v>
       </c>
       <c r="S3">
-        <v>0.1229221051190195</v>
+        <v>0.1165466132596585</v>
       </c>
       <c r="T3">
-        <v>0.1229221051190195</v>
+        <v>0.1165466132596585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.19977699719675</v>
+        <v>2.528563666666667</v>
       </c>
       <c r="H4">
-        <v>1.19977699719675</v>
+        <v>7.585691000000001</v>
       </c>
       <c r="I4">
-        <v>0.3364121964921098</v>
+        <v>0.2627383137214249</v>
       </c>
       <c r="J4">
-        <v>0.3364121964921098</v>
+        <v>0.2627383137214249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.149244735800105</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="N4">
-        <v>0.149244735800105</v>
+        <v>0.453448</v>
       </c>
       <c r="O4">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818079</v>
       </c>
       <c r="P4">
-        <v>0.8147613556650337</v>
+        <v>0.7495144539818078</v>
       </c>
       <c r="Q4">
-        <v>0.1790604009656723</v>
+        <v>0.3821907125075556</v>
       </c>
       <c r="R4">
-        <v>0.1790604009656723</v>
+        <v>3.439716412568</v>
       </c>
       <c r="S4">
-        <v>0.2740956572761631</v>
+        <v>0.1969261637490148</v>
       </c>
       <c r="T4">
-        <v>0.2740956572761631</v>
+        <v>0.1969261637490147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.528563666666667</v>
+      </c>
+      <c r="H5">
+        <v>7.585691000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="J5">
+        <v>0.2627383137214249</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.151541</v>
+      </c>
+      <c r="O5">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="P5">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="Q5">
+        <v>0.1277270222034445</v>
+      </c>
+      <c r="R5">
+        <v>1.149543199831</v>
+      </c>
+      <c r="S5">
+        <v>0.06581214997241017</v>
+      </c>
+      <c r="T5">
+        <v>0.06581214997241015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.19977699719675</v>
-      </c>
-      <c r="H5">
-        <v>1.19977699719675</v>
-      </c>
-      <c r="I5">
-        <v>0.3364121964921098</v>
-      </c>
-      <c r="J5">
-        <v>0.3364121964921098</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.0339312761233947</v>
-      </c>
-      <c r="N5">
-        <v>0.0339312761233947</v>
-      </c>
-      <c r="O5">
-        <v>0.1852386443349663</v>
-      </c>
-      <c r="P5">
-        <v>0.1852386443349663</v>
-      </c>
-      <c r="Q5">
-        <v>0.04070996457838028</v>
-      </c>
-      <c r="R5">
-        <v>0.04070996457838028</v>
-      </c>
-      <c r="S5">
-        <v>0.06231653921594671</v>
-      </c>
-      <c r="T5">
-        <v>0.06231653921594671</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.617494</v>
+      </c>
+      <c r="H6">
+        <v>7.852482</v>
+      </c>
+      <c r="I6">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="J6">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1511493333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.453448</v>
+      </c>
+      <c r="O6">
+        <v>0.7495144539818079</v>
+      </c>
+      <c r="P6">
+        <v>0.7495144539818078</v>
+      </c>
+      <c r="Q6">
+        <v>0.395632473104</v>
+      </c>
+      <c r="R6">
+        <v>3.560692257936</v>
+      </c>
+      <c r="S6">
+        <v>0.203852115274428</v>
+      </c>
+      <c r="T6">
+        <v>0.2038521152744279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.617494</v>
+      </c>
+      <c r="H7">
+        <v>7.852482</v>
+      </c>
+      <c r="I7">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="J7">
+        <v>0.2719788980605514</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.05051366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.151541</v>
+      </c>
+      <c r="O7">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="P7">
+        <v>0.2504855460181921</v>
+      </c>
+      <c r="Q7">
+        <v>0.132219219418</v>
+      </c>
+      <c r="R7">
+        <v>1.189972974762</v>
+      </c>
+      <c r="S7">
+        <v>0.06812678278612341</v>
+      </c>
+      <c r="T7">
+        <v>0.06812678278612341</v>
       </c>
     </row>
   </sheetData>
